--- a/data/trans_camb/P16_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P16_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,49</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4,52</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>8,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 3,4</t>
+          <t>-2,79; 9,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,78</t>
+          <t>-4,28; 7,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 7,46</t>
+          <t>-0,85; 12,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 3,77</t>
+          <t>-1,21; 12,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 8,59</t>
+          <t>-6,95; 7,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,81; 23,21</t>
+          <t>-3,53; 10,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 1,86</t>
+          <t>-2,95; 11,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 4,59</t>
+          <t>4,16; 20,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,32; 14,23</t>
+          <t>-3,32; 6,06</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 7,78</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 9,41</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>3,45; 14,67</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-12,24%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,88%</t>
+          <t>74,81%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,84%</t>
+          <t>69,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>-0,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,54%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-10,89%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>43,33%</t>
+          <t>11,85%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>75,14%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-49,15; 46,21</t>
+          <t>-30,29; 207,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 57,23</t>
+          <t>-45,54; 180,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,34; 104,29</t>
+          <t>-12,56; 267,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,44; 26,42</t>
+          <t>-13,61; 253,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 61,88</t>
+          <t>-38,76; 60,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,93; 162,57</t>
+          <t>-18,53; 94,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,73; 16,17</t>
+          <t>-18,22; 96,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,23; 38,56</t>
+          <t>24,62; 178,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 108,42</t>
+          <t>-24,31; 68,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-14,61; 80,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 98,06</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 157,05</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>12,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>-0,39</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>4,11</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>9,61</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 5,53</t>
+          <t>-4,47; 13,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 8,09</t>
+          <t>-0,95; 16,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 8,18</t>
+          <t>1,86; 19,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 2,66</t>
+          <t>4,01; 21,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 8,6</t>
+          <t>-10,72; 6,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 10,43</t>
+          <t>-7,94; 10,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 1,66</t>
+          <t>-9,19; 8,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 5,79</t>
+          <t>-3,59; 21,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 6,54</t>
+          <t>-6,46; 6,07</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 9,95</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,86; 10,88</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>2,59; 19,02</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-12,27%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>92,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>25,73%</t>
+          <t>136,39%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,6%</t>
+          <t>185,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>-12,56%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,77%</t>
+          <t>-0,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,64%</t>
+          <t>-2,79%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>24,02%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>29,57%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69,1%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-58,06; 77,43</t>
+          <t>-56,41; 418,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,31; 108,65</t>
+          <t>-18,68; 444,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-33,45; 118,45</t>
+          <t>6,65; 544,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,37; 18,47</t>
+          <t>28,41; 536,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 54,34</t>
+          <t>-43,47; 42,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 67,17</t>
+          <t>-33,41; 64,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-46,28; 14,03</t>
+          <t>-37,92; 54,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 48,2</t>
+          <t>-17,78; 136,64</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 51,36</t>
+          <t>-39,14; 52,74</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-18,94; 86,9</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,29; 103,19</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>12,02; 167,71</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,7</t>
+          <t>6,03</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-3,09</t>
+          <t>46,31</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>9,13</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,84</t>
+          <t>8,28</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,58</t>
+          <t>23,72</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4,88</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>7,14</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35,44</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 19,3</t>
+          <t>-11,23; 27,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 14,05</t>
+          <t>-14,94; 16,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 14,85</t>
+          <t>-10,64; 25,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 7,26</t>
+          <t>18,79; 76,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 22,44</t>
+          <t>-10,52; 7,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,81; 18,78</t>
+          <t>-3,17; 22,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 10,57</t>
+          <t>-2,79; 22,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 15,89</t>
+          <t>7,43; 41,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 13,89</t>
+          <t>-7,3; 13,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 14,37</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 19,06</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,58; 55,04</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>117,01%</t>
+          <t>100,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>57,48%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>66,84%</t>
+          <t>79,38%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-21,87%</t>
+          <t>609,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>64,5%</t>
+          <t>-11,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>43,51%</t>
+          <t>172,17%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>162,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>63,31%</t>
+          <t>466,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>51,57%</t>
+          <t>54,48%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>76,77%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>112,33%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>557,16%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,54; 699,49</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,93; 530,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 609,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,01; 82,54</t>
+          <t>38,99; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 282,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,72; 245,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 165,55</t>
+          <t>-66,33; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-17,5; 247,82</t>
+          <t>20,19; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,64; 211,19</t>
+          <t>-74,88; 474,18</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-62,24; 581,7</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-53,71; 765,99</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>108,61; 2320,17</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,05</t>
+          <t>12,78</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,16</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>11,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 3,46</t>
+          <t>-1,19; 8,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 4,36</t>
+          <t>-1,24; 8,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,19</t>
+          <t>2,32; 12,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 0,91</t>
+          <t>6,67; 21,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 7,01</t>
+          <t>-6,36; 4,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,13</t>
+          <t>-2,43; 8,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,48</t>
+          <t>-2,58; 8,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,67</t>
+          <t>5,41; 19,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 8,72</t>
+          <t>-2,79; 4,82</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 6,74</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0,93; 8,43</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 16,83</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>46,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>29,72%</t>
+          <t>99,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-16,9%</t>
+          <t>178,85%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>-6,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>34,11%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-12,02%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>70,26%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>26,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>38,6%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>99,13%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,44; 46,37</t>
+          <t>-14,75; 162,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,71; 56,53</t>
+          <t>-15,67; 154,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 79,66</t>
+          <t>20,8; 226,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-35,53; 6,36</t>
+          <t>67,59; 404,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,95; 43,85</t>
+          <t>-33,8; 36,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,6; 81,86</t>
+          <t>-13,06; 65,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 12,53</t>
+          <t>-13,72; 65,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 38,8</t>
+          <t>27,21; 142,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>7,45; 68,67</t>
+          <t>-20,16; 45,87</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 65,74</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>7,0; 82,62</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>52,61; 160,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
